--- a/APM files/140281999/UTD/140281999 5 VR_PM Under the Doormat - DRR Cloud Import.xlsx
+++ b/APM files/140281999/UTD/140281999 5 VR_PM Under the Doormat - DRR Cloud Import.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\llepori\.atlassian-companion\53df4393-b023-4692-8f9b-5113cd5ebe2a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/repositories/workspace/APM files/140281999/UTD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F2DB7D-8797-45CB-BAC6-44D659B5390A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF43AC9D-3197-2A46-A982-2DB2D6B0707A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="3975" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="27040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$AM$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$AL$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="68">
   <si>
     <t>Hotel ID</t>
   </si>
@@ -193,14 +193,59 @@
     <t>SF ID</t>
   </si>
   <si>
-    <t>Booking Start Time</t>
+    <t>06/06/2025</t>
+  </si>
+  <si>
+    <t>402796796</t>
+  </si>
+  <si>
+    <t>402796799</t>
+  </si>
+  <si>
+    <t>402795571</t>
+  </si>
+  <si>
+    <t>402796803</t>
+  </si>
+  <si>
+    <t>402796804</t>
+  </si>
+  <si>
+    <t>402795574</t>
+  </si>
+  <si>
+    <t>402796807</t>
+  </si>
+  <si>
+    <t>402796809</t>
+  </si>
+  <si>
+    <t>402795578</t>
+  </si>
+  <si>
+    <t>402796812</t>
+  </si>
+  <si>
+    <t>402796815</t>
+  </si>
+  <si>
+    <t>402795583</t>
+  </si>
+  <si>
+    <t>402796818</t>
+  </si>
+  <si>
+    <t>402796820</t>
+  </si>
+  <si>
+    <t>402795585</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,8 +330,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="22" fontId="6" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,55 +610,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM4"/>
+  <dimension ref="A1:AL16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="190" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="23" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="30" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="23" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="30" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1">
+    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -624,19 +668,19 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
@@ -666,93 +710,100 @@
         <v>2</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM1" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="4">
+        <v>140281999</v>
+      </c>
+      <c r="C2" s="4">
+        <v>108815105</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
+      <c r="G2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="I2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="K2" s="3" t="s">
         <v>46</v>
       </c>
@@ -772,41 +823,43 @@
       <c r="Q2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="4"/>
+      <c r="R2" s="3">
+        <v>0</v>
+      </c>
       <c r="S2" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="T2" s="3">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="U2" s="3">
-        <v>1</v>
-      </c>
-      <c r="V2" s="3">
         <v>28</v>
       </c>
+      <c r="V2" s="3"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
+      <c r="Z2" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AA2" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AC2" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
+      <c r="AG2" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="AH2" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AJ2" s="3" t="s">
         <v>42</v>
@@ -814,32 +867,39 @@
       <c r="AK2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AL2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM2" s="3"/>
+      <c r="AL2" s="3"/>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="4">
+        <v>140281999</v>
+      </c>
+      <c r="C3" s="4">
+        <v>108815105</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
+      <c r="G3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="I3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="4"/>
+      <c r="J3" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="K3" s="3" t="s">
         <v>46</v>
       </c>
@@ -859,41 +919,43 @@
       <c r="Q3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="4"/>
+      <c r="R3" s="3">
+        <v>0</v>
+      </c>
       <c r="S3" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="T3" s="3">
-        <v>500</v>
+        <v>7</v>
       </c>
       <c r="U3" s="3">
-        <v>7</v>
-      </c>
-      <c r="V3" s="3">
         <v>28</v>
       </c>
+      <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
+      <c r="Z3" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AA3" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC3" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
+      <c r="AG3" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="AH3" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AJ3" s="3" t="s">
         <v>42</v>
@@ -901,32 +963,39 @@
       <c r="AK3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AL3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM3" s="3"/>
+      <c r="AL3" s="3"/>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="4">
+        <v>140281999</v>
+      </c>
+      <c r="C4" s="4">
+        <v>108815105</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
+      <c r="G4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="I4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="K4" s="3" t="s">
         <v>46</v>
       </c>
@@ -946,55 +1015,1212 @@
       <c r="Q4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="4"/>
+      <c r="R4" s="3">
+        <v>0</v>
+      </c>
       <c r="S4" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="T4" s="3">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="U4" s="3">
-        <v>20</v>
-      </c>
-      <c r="V4" s="3">
         <v>28</v>
       </c>
+      <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
+      <c r="Z4" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AA4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC4" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
+      <c r="AG4" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="AH4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL4" s="3"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="4">
+        <v>140281999</v>
+      </c>
+      <c r="C5" s="4">
+        <v>108815105</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3">
+        <v>500</v>
+      </c>
+      <c r="T5" s="3">
+        <v>1</v>
+      </c>
+      <c r="U5" s="3">
+        <v>28</v>
+      </c>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL5" s="3"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="4">
+        <v>140281999</v>
+      </c>
+      <c r="C6" s="4">
+        <v>108815105</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3">
+        <v>500</v>
+      </c>
+      <c r="T6" s="3">
+        <v>7</v>
+      </c>
+      <c r="U6" s="3">
+        <v>28</v>
+      </c>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AH6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AJ4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM4" s="3"/>
+      <c r="AI6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL6" s="3"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="4">
+        <v>140281999</v>
+      </c>
+      <c r="C7" s="4">
+        <v>108815105</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <v>500</v>
+      </c>
+      <c r="T7" s="3">
+        <v>20</v>
+      </c>
+      <c r="U7" s="3">
+        <v>28</v>
+      </c>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL7" s="3"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="4">
+        <v>140281999</v>
+      </c>
+      <c r="C8" s="4">
+        <v>108815105</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>500</v>
+      </c>
+      <c r="T8" s="3">
+        <v>1</v>
+      </c>
+      <c r="U8" s="3">
+        <v>28</v>
+      </c>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL8" s="3"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="4">
+        <v>140281999</v>
+      </c>
+      <c r="C9" s="4">
+        <v>108815105</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>500</v>
+      </c>
+      <c r="T9" s="3">
+        <v>7</v>
+      </c>
+      <c r="U9" s="3">
+        <v>28</v>
+      </c>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL9" s="3"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="4">
+        <v>140281999</v>
+      </c>
+      <c r="C10" s="4">
+        <v>108815105</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
+        <v>500</v>
+      </c>
+      <c r="T10" s="3">
+        <v>20</v>
+      </c>
+      <c r="U10" s="3">
+        <v>28</v>
+      </c>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL10" s="3"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="4">
+        <v>140281999</v>
+      </c>
+      <c r="C11" s="4">
+        <v>108815105</v>
+      </c>
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0</v>
+      </c>
+      <c r="S11" s="3">
+        <v>500</v>
+      </c>
+      <c r="T11" s="3">
+        <v>1</v>
+      </c>
+      <c r="U11" s="3">
+        <v>28</v>
+      </c>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL11" s="3"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="4">
+        <v>140281999</v>
+      </c>
+      <c r="C12" s="4">
+        <v>108815105</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>500</v>
+      </c>
+      <c r="T12" s="3">
+        <v>7</v>
+      </c>
+      <c r="U12" s="3">
+        <v>28</v>
+      </c>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL12" s="3"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="4">
+        <v>140281999</v>
+      </c>
+      <c r="C13" s="4">
+        <v>108815105</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>500</v>
+      </c>
+      <c r="T13" s="3">
+        <v>20</v>
+      </c>
+      <c r="U13" s="3">
+        <v>28</v>
+      </c>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL13" s="3"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="4">
+        <v>140281999</v>
+      </c>
+      <c r="C14" s="4">
+        <v>108815105</v>
+      </c>
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>500</v>
+      </c>
+      <c r="T14" s="3">
+        <v>1</v>
+      </c>
+      <c r="U14" s="3">
+        <v>28</v>
+      </c>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL14" s="3"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="4">
+        <v>140281999</v>
+      </c>
+      <c r="C15" s="4">
+        <v>108815105</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>500</v>
+      </c>
+      <c r="T15" s="3">
+        <v>7</v>
+      </c>
+      <c r="U15" s="3">
+        <v>28</v>
+      </c>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL15" s="3"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="4">
+        <v>140281999</v>
+      </c>
+      <c r="C16" s="4">
+        <v>108815105</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0</v>
+      </c>
+      <c r="S16" s="3">
+        <v>500</v>
+      </c>
+      <c r="T16" s="3">
+        <v>20</v>
+      </c>
+      <c r="U16" s="3">
+        <v>28</v>
+      </c>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{03ef5274-90b8-4b3f-8a76-b4c36a43e904}" enabled="1" method="Standard" siteId="{61e6eeb3-5fd7-4aaa-ae3c-61e8deb09b79}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>